--- a/gdjl_train/src/Resource/tcSample.xlsx
+++ b/gdjl_train/src/Resource/tcSample.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="3540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Apache_poi_1</t>
   </si>
   <si>
@@ -39,16 +36,13 @@
     <t>t123456</t>
   </si>
   <si>
-    <t>logined</t>
-  </si>
-  <si>
     <t>Apache_poi_2</t>
   </si>
   <si>
     <t>invalid</t>
   </si>
   <si>
-    <t>not login</t>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -405,14 +399,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -426,35 +421,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
